--- a/backend/data/employees.xlsx
+++ b/backend/data/employees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\HackProject\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MTC-hack\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B652F0-2237-42DD-B337-D6011B576B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997053DC-9301-4ACE-B703-51EB8E18FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1965" windowWidth="20310" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="438">
   <si>
     <t>Подразделение 2</t>
   </si>
@@ -1660,8 +1660,8 @@
   </sheetPr>
   <dimension ref="A1:N1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1772,8 +1772,8 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -1813,8 +1813,8 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1854,8 +1854,8 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -1895,8 +1895,8 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1936,8 +1936,8 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1977,8 +1977,8 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2018,8 +2018,8 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2100,8 +2100,8 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2141,8 +2141,8 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2182,8 +2182,8 @@
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2223,8 +2223,8 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2264,8 +2264,8 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2305,8 +2305,8 @@
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2346,8 +2346,8 @@
       <c r="D17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2387,8 +2387,8 @@
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2428,8 +2428,8 @@
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2469,8 +2469,8 @@
       <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2510,8 +2510,8 @@
       <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2551,8 +2551,8 @@
       <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2592,8 +2592,8 @@
       <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2633,8 +2633,8 @@
       <c r="D24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2674,8 +2674,8 @@
       <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2715,8 +2715,8 @@
       <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2756,8 +2756,8 @@
       <c r="D27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2797,8 +2797,8 @@
       <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2838,8 +2838,8 @@
       <c r="D29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2879,8 +2879,8 @@
       <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2920,8 +2920,8 @@
       <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2961,8 +2961,8 @@
       <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3002,8 +3002,8 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3043,8 +3043,8 @@
       <c r="D34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -4150,8 +4150,8 @@
       <c r="D61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
+      <c r="E61" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4191,8 +4191,8 @@
       <c r="D62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
+      <c r="E62" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4232,8 +4232,8 @@
       <c r="D63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
+      <c r="E63" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4273,8 +4273,8 @@
       <c r="D64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
+      <c r="E64" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4314,8 +4314,8 @@
       <c r="D65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
+      <c r="E65" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4355,8 +4355,8 @@
       <c r="D66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
+      <c r="E66" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4396,8 +4396,8 @@
       <c r="D67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
+      <c r="E67" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4437,8 +4437,8 @@
       <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
+      <c r="E68" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4478,8 +4478,8 @@
       <c r="D69" s="1">
         <v>0</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
+      <c r="E69" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4519,8 +4519,8 @@
       <c r="D70" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="1">
-        <v>0</v>
+      <c r="E70" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -5257,8 +5257,8 @@
       <c r="D88" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E88" s="1">
-        <v>0</v>
+      <c r="E88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5954,8 +5954,8 @@
       <c r="D105" s="1">
         <v>0</v>
       </c>
-      <c r="E105" s="1">
-        <v>0</v>
+      <c r="E105" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5995,8 +5995,8 @@
       <c r="D106" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E106" s="1">
-        <v>0</v>
+      <c r="E106" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -6036,8 +6036,8 @@
       <c r="D107" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E107" s="1">
-        <v>0</v>
+      <c r="E107" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -6077,8 +6077,8 @@
       <c r="D108" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E108" s="1">
-        <v>0</v>
+      <c r="E108" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -6118,8 +6118,8 @@
       <c r="D109" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E109" s="1">
-        <v>0</v>
+      <c r="E109" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -6159,8 +6159,8 @@
       <c r="D110" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E110" s="1">
-        <v>0</v>
+      <c r="E110" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -6200,8 +6200,8 @@
       <c r="D111" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E111" s="1">
-        <v>0</v>
+      <c r="E111" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -6241,8 +6241,8 @@
       <c r="D112" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E112" s="1">
-        <v>0</v>
+      <c r="E112" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -6282,8 +6282,8 @@
       <c r="D113" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="1">
-        <v>0</v>
+      <c r="E113" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -6323,8 +6323,8 @@
       <c r="D114" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E114" s="1">
-        <v>0</v>
+      <c r="E114" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -6364,8 +6364,8 @@
       <c r="D115" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E115" s="1">
-        <v>0</v>
+      <c r="E115" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -6405,8 +6405,8 @@
       <c r="D116" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E116" s="1">
-        <v>0</v>
+      <c r="E116" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -6446,8 +6446,8 @@
       <c r="D117" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E117" s="1">
-        <v>0</v>
+      <c r="E117" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -6487,8 +6487,8 @@
       <c r="D118" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E118" s="1">
-        <v>0</v>
+      <c r="E118" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -6528,8 +6528,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" s="1">
-        <v>0</v>
+      <c r="E119" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>307</v>
@@ -6569,8 +6569,8 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" s="1">
-        <v>0</v>
+      <c r="E120" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>307</v>
@@ -6610,8 +6610,8 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" s="1">
-        <v>0</v>
+      <c r="E121" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>307</v>
@@ -6651,8 +6651,8 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" s="1">
-        <v>0</v>
+      <c r="E122" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>307</v>
@@ -6692,8 +6692,8 @@
       <c r="D123">
         <v>0</v>
       </c>
-      <c r="E123" s="1">
-        <v>0</v>
+      <c r="E123" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>307</v>
@@ -6733,8 +6733,8 @@
       <c r="D124">
         <v>0</v>
       </c>
-      <c r="E124" s="1">
-        <v>0</v>
+      <c r="E124" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>307</v>
@@ -6774,8 +6774,8 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
+      <c r="E125" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>307</v>
@@ -6815,8 +6815,8 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126" s="1">
-        <v>0</v>
+      <c r="E126" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -6856,8 +6856,8 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127" s="1">
-        <v>0</v>
+      <c r="E127" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -6897,8 +6897,8 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128" s="1">
-        <v>0</v>
+      <c r="E128" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -6938,8 +6938,8 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" s="1">
-        <v>0</v>
+      <c r="E129" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -6979,8 +6979,8 @@
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" s="1">
-        <v>0</v>
+      <c r="E130" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -7020,8 +7020,8 @@
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131" s="1">
-        <v>0</v>
+      <c r="E131" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -7061,8 +7061,8 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
+      <c r="E132" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>23</v>
@@ -7102,8 +7102,8 @@
       <c r="D133">
         <v>0</v>
       </c>
-      <c r="E133" s="1">
-        <v>0</v>
+      <c r="E133" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
@@ -7143,8 +7143,8 @@
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134" s="1">
-        <v>0</v>
+      <c r="E134" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>23</v>
@@ -7184,8 +7184,8 @@
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" s="1">
-        <v>0</v>
+      <c r="E135" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>23</v>
@@ -7225,8 +7225,8 @@
       <c r="D136">
         <v>0</v>
       </c>
-      <c r="E136" s="1">
-        <v>0</v>
+      <c r="E136" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>23</v>
@@ -7266,8 +7266,8 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" s="1">
-        <v>0</v>
+      <c r="E137" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>23</v>
@@ -7307,8 +7307,8 @@
       <c r="D138">
         <v>0</v>
       </c>
-      <c r="E138" s="1">
-        <v>0</v>
+      <c r="E138" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>23</v>
@@ -7348,8 +7348,8 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139" s="1">
-        <v>0</v>
+      <c r="E139" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>337</v>
@@ -7389,8 +7389,8 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140" s="1">
-        <v>0</v>
+      <c r="E140" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>337</v>
@@ -7430,8 +7430,8 @@
       <c r="D141">
         <v>0</v>
       </c>
-      <c r="E141" s="1">
-        <v>0</v>
+      <c r="E141" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>337</v>
@@ -7471,8 +7471,8 @@
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="E142" s="1">
-        <v>0</v>
+      <c r="E142" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>337</v>
@@ -7512,8 +7512,8 @@
       <c r="D143">
         <v>0</v>
       </c>
-      <c r="E143" s="1">
-        <v>0</v>
+      <c r="E143" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>337</v>
@@ -7553,8 +7553,8 @@
       <c r="D144">
         <v>0</v>
       </c>
-      <c r="E144" s="1">
-        <v>0</v>
+      <c r="E144" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>337</v>
@@ -7594,8 +7594,8 @@
       <c r="D145" s="1">
         <v>0</v>
       </c>
-      <c r="E145" s="1">
-        <v>0</v>
+      <c r="E145" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F145" s="1">
         <v>0</v>
@@ -7635,8 +7635,8 @@
       <c r="D146" s="1">
         <v>0</v>
       </c>
-      <c r="E146" s="1">
-        <v>0</v>
+      <c r="E146" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -7676,8 +7676,8 @@
       <c r="D147" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E147" s="1">
-        <v>0</v>
+      <c r="E147" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F147" s="1">
         <v>0</v>
@@ -8414,8 +8414,8 @@
       <c r="D165" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E165" s="1">
-        <v>0</v>
+      <c r="E165" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
@@ -8988,8 +8988,8 @@
       <c r="D179" s="1">
         <v>0</v>
       </c>
-      <c r="E179" s="1">
-        <v>0</v>
+      <c r="E179" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
@@ -9029,8 +9029,8 @@
       <c r="D180" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E180" s="1">
-        <v>0</v>
+      <c r="E180" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F180" s="1">
         <v>0</v>
@@ -9070,8 +9070,8 @@
       <c r="D181" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E181" s="1">
-        <v>0</v>
+      <c r="E181" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
@@ -9111,8 +9111,8 @@
       <c r="D182" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E182" s="1">
-        <v>0</v>
+      <c r="E182" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
@@ -9152,8 +9152,8 @@
       <c r="D183" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E183" s="1">
-        <v>0</v>
+      <c r="E183" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F183" s="1">
         <v>0</v>
@@ -9193,8 +9193,8 @@
       <c r="D184" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E184" s="1">
-        <v>0</v>
+      <c r="E184" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
@@ -9234,8 +9234,8 @@
       <c r="D185" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E185" s="1">
-        <v>0</v>
+      <c r="E185" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F185" s="1">
         <v>0</v>
@@ -9275,8 +9275,8 @@
       <c r="D186" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E186" s="1">
-        <v>0</v>
+      <c r="E186" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F186" s="1">
         <v>0</v>
@@ -9316,8 +9316,8 @@
       <c r="D187" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E187" s="1">
-        <v>0</v>
+      <c r="E187" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F187" s="1">
         <v>0</v>
@@ -9357,8 +9357,8 @@
       <c r="D188" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E188" s="1">
-        <v>0</v>
+      <c r="E188" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F188" s="1">
         <v>0</v>
@@ -9398,8 +9398,8 @@
       <c r="D189" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E189" s="1">
-        <v>0</v>
+      <c r="E189" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F189" s="1">
         <v>0</v>
@@ -9439,8 +9439,8 @@
       <c r="D190" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E190" s="1">
-        <v>0</v>
+      <c r="E190" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F190" s="1">
         <v>0</v>
@@ -9480,8 +9480,8 @@
       <c r="D191" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E191" s="1">
-        <v>0</v>
+      <c r="E191" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F191" s="1">
         <v>0</v>
@@ -9521,8 +9521,8 @@
       <c r="D192">
         <v>0</v>
       </c>
-      <c r="E192" s="1">
-        <v>0</v>
+      <c r="E192" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>307</v>
@@ -9562,8 +9562,8 @@
       <c r="D193">
         <v>0</v>
       </c>
-      <c r="E193" s="1">
-        <v>0</v>
+      <c r="E193" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>307</v>
@@ -9603,8 +9603,8 @@
       <c r="D194">
         <v>0</v>
       </c>
-      <c r="E194" s="1">
-        <v>0</v>
+      <c r="E194" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>307</v>
@@ -9644,8 +9644,8 @@
       <c r="D195">
         <v>0</v>
       </c>
-      <c r="E195" s="1">
-        <v>0</v>
+      <c r="E195" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>307</v>
@@ -9685,8 +9685,8 @@
       <c r="D196">
         <v>0</v>
       </c>
-      <c r="E196" s="1">
-        <v>0</v>
+      <c r="E196" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>307</v>
@@ -9726,8 +9726,8 @@
       <c r="D197">
         <v>0</v>
       </c>
-      <c r="E197" s="1">
-        <v>0</v>
+      <c r="E197" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>307</v>
@@ -9767,8 +9767,8 @@
       <c r="D198">
         <v>0</v>
       </c>
-      <c r="E198" s="1">
-        <v>0</v>
+      <c r="E198" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>307</v>
@@ -9808,8 +9808,8 @@
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199" s="1">
-        <v>0</v>
+      <c r="E199" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -9849,8 +9849,8 @@
       <c r="D200">
         <v>0</v>
       </c>
-      <c r="E200" s="1">
-        <v>0</v>
+      <c r="E200" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -9890,8 +9890,8 @@
       <c r="D201">
         <v>0</v>
       </c>
-      <c r="E201" s="1">
-        <v>0</v>
+      <c r="E201" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -9931,8 +9931,8 @@
       <c r="D202">
         <v>0</v>
       </c>
-      <c r="E202" s="1">
-        <v>0</v>
+      <c r="E202" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -9972,8 +9972,8 @@
       <c r="D203">
         <v>0</v>
       </c>
-      <c r="E203" s="1">
-        <v>0</v>
+      <c r="E203" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -10013,8 +10013,8 @@
       <c r="D204">
         <v>0</v>
       </c>
-      <c r="E204" s="1">
-        <v>0</v>
+      <c r="E204" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>23</v>
@@ -10054,8 +10054,8 @@
       <c r="D205">
         <v>0</v>
       </c>
-      <c r="E205" s="1">
-        <v>0</v>
+      <c r="E205" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>23</v>
@@ -10095,8 +10095,8 @@
       <c r="D206">
         <v>0</v>
       </c>
-      <c r="E206" s="1">
-        <v>0</v>
+      <c r="E206" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>23</v>
@@ -10136,8 +10136,8 @@
       <c r="D207">
         <v>0</v>
       </c>
-      <c r="E207" s="1">
-        <v>0</v>
+      <c r="E207" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>23</v>
@@ -10177,8 +10177,8 @@
       <c r="D208">
         <v>0</v>
       </c>
-      <c r="E208" s="1">
-        <v>0</v>
+      <c r="E208" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>23</v>
@@ -10218,8 +10218,8 @@
       <c r="D209">
         <v>0</v>
       </c>
-      <c r="E209" s="1">
-        <v>0</v>
+      <c r="E209" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>23</v>
@@ -10259,8 +10259,8 @@
       <c r="D210">
         <v>0</v>
       </c>
-      <c r="E210" s="1">
-        <v>0</v>
+      <c r="E210" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>23</v>
@@ -10300,8 +10300,8 @@
       <c r="D211">
         <v>0</v>
       </c>
-      <c r="E211" s="1">
-        <v>0</v>
+      <c r="E211" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>337</v>
@@ -10341,8 +10341,8 @@
       <c r="D212">
         <v>0</v>
       </c>
-      <c r="E212" s="1">
-        <v>0</v>
+      <c r="E212" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>337</v>
@@ -10382,8 +10382,8 @@
       <c r="D213">
         <v>0</v>
       </c>
-      <c r="E213" s="1">
-        <v>0</v>
+      <c r="E213" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>337</v>
@@ -10423,8 +10423,8 @@
       <c r="D214">
         <v>0</v>
       </c>
-      <c r="E214" s="1">
-        <v>0</v>
+      <c r="E214" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>337</v>
@@ -10464,8 +10464,8 @@
       <c r="D215">
         <v>0</v>
       </c>
-      <c r="E215" s="1">
-        <v>0</v>
+      <c r="E215" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>337</v>
@@ -14160,5 +14160,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/data/employees.xlsx
+++ b/backend/data/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MTC-hack\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997053DC-9301-4ACE-B703-51EB8E18FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2722B13-51C0-43A1-8B45-3A96275B89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="440">
   <si>
     <t>Подразделение 2</t>
   </si>
@@ -1334,13 +1334,19 @@
   </si>
   <si>
     <t>Адрес</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1394,6 +1400,13 @@
       <color rgb="FF383D41"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1418,10 +1431,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,8 +1454,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1660,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:N1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1716,7 +1732,9 @@
       <c r="M1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="12.75">
       <c r="A2">
@@ -1758,6 +1776,9 @@
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="12.75">
       <c r="A3">
@@ -1799,6 +1820,9 @@
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N3" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="12.75">
       <c r="A4">
@@ -1840,6 +1864,9 @@
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="N4" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
       <c r="A5">
@@ -1881,6 +1908,9 @@
       <c r="M5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N5" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="12.75">
       <c r="A6">
@@ -1922,6 +1952,9 @@
       <c r="M6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N6" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="12.75">
       <c r="A7">
@@ -1963,6 +1996,9 @@
       <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N7" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="12.75">
       <c r="A8">
@@ -2004,6 +2040,9 @@
       <c r="M8" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="N8" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="12.75">
       <c r="A9">
@@ -2045,6 +2084,9 @@
       <c r="M9" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N9" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="12.75">
       <c r="A10">
@@ -2086,6 +2128,9 @@
       <c r="M10" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="N10" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="12.75">
       <c r="A11">
@@ -2127,6 +2172,9 @@
       <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="N11" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="12.75">
       <c r="A12">
@@ -2168,6 +2216,9 @@
       <c r="M12" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="N12" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="12.75">
       <c r="A13">
@@ -2209,6 +2260,9 @@
       <c r="M13" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="N13" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="12.75">
       <c r="A14">
@@ -2250,6 +2304,9 @@
       <c r="M14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="N14" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="12.75">
       <c r="A15">
@@ -2291,6 +2348,9 @@
       <c r="M15" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="N15" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="12.75">
       <c r="A16">
@@ -2332,8 +2392,11 @@
       <c r="M16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2373,8 +2436,11 @@
       <c r="M17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2414,8 +2480,11 @@
       <c r="M18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2455,8 +2524,11 @@
       <c r="M19" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2496,8 +2568,11 @@
       <c r="M20" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2537,8 +2612,11 @@
       <c r="M21" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2578,8 +2656,11 @@
       <c r="M22" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2619,8 +2700,11 @@
       <c r="M23" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2660,8 +2744,11 @@
       <c r="M24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2701,8 +2788,11 @@
       <c r="M25" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2742,8 +2832,11 @@
       <c r="M26" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2783,8 +2876,11 @@
       <c r="M27" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2824,8 +2920,11 @@
       <c r="M28" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2865,8 +2964,11 @@
       <c r="M29" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2906,8 +3008,11 @@
       <c r="M30" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2947,8 +3052,11 @@
       <c r="M31" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2988,8 +3096,11 @@
       <c r="M32" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3029,8 +3140,11 @@
       <c r="M33" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3070,8 +3184,11 @@
       <c r="M34" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3111,8 +3228,11 @@
       <c r="M35" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3152,8 +3272,11 @@
       <c r="M36" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3193,8 +3316,11 @@
       <c r="M37" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
+      <c r="N37" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3234,8 +3360,11 @@
       <c r="M38" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+      <c r="N38" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3275,8 +3404,11 @@
       <c r="M39" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
+      <c r="N39" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3316,8 +3448,11 @@
       <c r="M40" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
+      <c r="N40" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3357,8 +3492,11 @@
       <c r="M41" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
+      <c r="N41" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3398,8 +3536,11 @@
       <c r="M42" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
+      <c r="N42" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3439,8 +3580,11 @@
       <c r="M43" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
+      <c r="N43" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3480,8 +3624,11 @@
       <c r="M44" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
+      <c r="N44" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3521,8 +3668,11 @@
       <c r="M45" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
+      <c r="N45" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3562,8 +3712,11 @@
       <c r="M46" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+      <c r="N46" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3603,8 +3756,11 @@
       <c r="M47" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+      <c r="N47" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3644,8 +3800,11 @@
       <c r="M48" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+      <c r="N48" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="12.75">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3685,8 +3844,11 @@
       <c r="M49" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
+      <c r="N49" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3726,8 +3888,11 @@
       <c r="M50" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
+      <c r="N50" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3767,8 +3932,11 @@
       <c r="M51" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
+      <c r="N51" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3808,8 +3976,11 @@
       <c r="M52" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
+      <c r="N52" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3849,8 +4020,11 @@
       <c r="M53" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
+      <c r="N53" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3890,8 +4064,11 @@
       <c r="M54" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+      <c r="N54" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3931,8 +4108,11 @@
       <c r="M55" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75">
+      <c r="N55" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3972,8 +4152,11 @@
       <c r="M56" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75">
+      <c r="N56" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="12.75">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4013,8 +4196,11 @@
       <c r="M57" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75">
+      <c r="N57" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="12.75">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4054,8 +4240,11 @@
       <c r="M58" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75">
+      <c r="N58" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="12.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4095,8 +4284,11 @@
       <c r="M59" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75">
+      <c r="N59" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="12.75">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4136,8 +4328,11 @@
       <c r="M60" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75">
+      <c r="N60" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="12.75">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4177,8 +4372,11 @@
       <c r="M61" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75">
+      <c r="N61" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="12.75">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4218,8 +4416,11 @@
       <c r="M62" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75">
+      <c r="N62" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="12.75">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4259,8 +4460,11 @@
       <c r="M63" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75">
+      <c r="N63" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="12.75">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4300,8 +4504,11 @@
       <c r="M64" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75">
+      <c r="N64" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="12.75">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4341,8 +4548,11 @@
       <c r="M65" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75">
+      <c r="N65" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="12.75">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4382,8 +4592,11 @@
       <c r="M66" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75">
+      <c r="N66" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="12.75">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4423,8 +4636,11 @@
       <c r="M67" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75">
+      <c r="N67" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="12.75">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4464,8 +4680,11 @@
       <c r="M68" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N68" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" customHeight="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4505,8 +4724,11 @@
       <c r="M69" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75">
+      <c r="N69" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="12.75">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4546,8 +4768,11 @@
       <c r="M70" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75">
+      <c r="N70" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="12.75">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4587,8 +4812,11 @@
       <c r="M71" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75">
+      <c r="N71" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="12.75">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4628,8 +4856,11 @@
       <c r="M72" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75">
+      <c r="N72" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="12.75">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4669,8 +4900,11 @@
       <c r="M73" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75">
+      <c r="N73" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="12.75">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4710,8 +4944,11 @@
       <c r="M74" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75">
+      <c r="N74" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="12.75">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4751,8 +4988,11 @@
       <c r="M75" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75">
+      <c r="N75" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="12.75">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4792,8 +5032,11 @@
       <c r="M76" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="12.75">
+      <c r="N76" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="12.75">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4833,8 +5076,11 @@
       <c r="M77" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="12.75">
+      <c r="N77" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="12.75">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4874,8 +5120,11 @@
       <c r="M78" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="12.75">
+      <c r="N78" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="12.75">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="M79" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="12.75">
+      <c r="N79" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="12.75">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4956,8 +5208,11 @@
       <c r="M80" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="12.75">
+      <c r="N80" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="12.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4997,8 +5252,11 @@
       <c r="M81" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="12.75">
+      <c r="N81" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="12.75">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5038,8 +5296,11 @@
       <c r="M82" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="12.75">
+      <c r="N82" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12.75">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5079,8 +5340,11 @@
       <c r="M83" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N83" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" customHeight="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5120,8 +5384,11 @@
       <c r="M84" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N84" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.5" customHeight="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5161,8 +5428,11 @@
       <c r="M85" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N85" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="16.5" customHeight="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5202,8 +5472,11 @@
       <c r="M86" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N86" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="16.5" customHeight="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5243,8 +5516,11 @@
       <c r="M87" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N87" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" customHeight="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5284,8 +5560,11 @@
       <c r="M88" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N88" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16.5" customHeight="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5325,8 +5604,11 @@
       <c r="M89" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N89" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16.5" customHeight="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5366,8 +5648,11 @@
       <c r="M90" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="16.5" customHeight="1">
+      <c r="N90" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.5" customHeight="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5407,8 +5692,11 @@
       <c r="M91" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="12.75">
+      <c r="N91" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="12.75">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5448,8 +5736,11 @@
       <c r="M92" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="12.75">
+      <c r="N92" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="12.75">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5489,8 +5780,11 @@
       <c r="M93" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="12.75">
+      <c r="N93" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="12.75">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5530,8 +5824,11 @@
       <c r="M94" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="12.75">
+      <c r="N94" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12.75">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5571,8 +5868,11 @@
       <c r="M95" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="12.75">
+      <c r="N95" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="12.75">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5612,8 +5912,11 @@
       <c r="M96" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="12.75">
+      <c r="N96" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="12.75">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5653,8 +5956,11 @@
       <c r="M97" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="12.75">
+      <c r="N97" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="12.75">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5694,8 +6000,11 @@
       <c r="M98" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="12.75">
+      <c r="N98" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="12.75">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5735,8 +6044,11 @@
       <c r="M99" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="12.75">
+      <c r="N99" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="12.75">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5776,8 +6088,11 @@
       <c r="M100" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="12.75">
+      <c r="N100" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="12.75">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5817,8 +6132,11 @@
       <c r="M101" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="12.75">
+      <c r="N101" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="12.75">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5858,8 +6176,11 @@
       <c r="M102" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="12.75">
+      <c r="N102" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="12.75">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5899,8 +6220,11 @@
       <c r="M103" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="12.75">
+      <c r="N103" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="12.75">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5940,8 +6264,11 @@
       <c r="M104" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="12.75">
+      <c r="N104" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="12.75">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5981,8 +6308,11 @@
       <c r="M105" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="12.75">
+      <c r="N105" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="12.75">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6022,8 +6352,11 @@
       <c r="M106" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="12.75">
+      <c r="N106" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="12.75">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6063,8 +6396,11 @@
       <c r="M107" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="12.75">
+      <c r="N107" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="12.75">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6104,8 +6440,11 @@
       <c r="M108" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="12.75">
+      <c r="N108" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="12.75">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6145,8 +6484,11 @@
       <c r="M109" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="12.75">
+      <c r="N109" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="12.75">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6186,8 +6528,11 @@
       <c r="M110" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="12.75">
+      <c r="N110" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="12.75">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6227,8 +6572,11 @@
       <c r="M111" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="12.75">
+      <c r="N111" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="12.75">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6268,8 +6616,11 @@
       <c r="M112" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="12.75">
+      <c r="N112" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="12.75">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6309,8 +6660,11 @@
       <c r="M113" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="12.75">
+      <c r="N113" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="12.75">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6350,8 +6704,11 @@
       <c r="M114" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="12.75">
+      <c r="N114" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="12.75">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6391,8 +6748,11 @@
       <c r="M115" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="12.75">
+      <c r="N115" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="12.75">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6432,8 +6792,11 @@
       <c r="M116" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="12.75">
+      <c r="N116" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="12.75">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6473,8 +6836,11 @@
       <c r="M117" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="12.75">
+      <c r="N117" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="12.75">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6514,8 +6880,11 @@
       <c r="M118" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="12.75">
+      <c r="N118" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="12.75">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6555,8 +6924,11 @@
       <c r="M119" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="12.75">
+      <c r="N119" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="12.75">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6596,8 +6968,11 @@
       <c r="M120" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="12.75">
+      <c r="N120" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="12.75">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6637,8 +7012,11 @@
       <c r="M121" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="12.75">
+      <c r="N121" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="12.75">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6678,8 +7056,11 @@
       <c r="M122" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="12.75">
+      <c r="N122" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="12.75">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6719,8 +7100,11 @@
       <c r="M123" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="12.75">
+      <c r="N123" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="12.75">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6760,8 +7144,11 @@
       <c r="M124" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="12.75">
+      <c r="N124" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="12.75">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6801,8 +7188,11 @@
       <c r="M125" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="12.75">
+      <c r="N125" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="12.75">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6842,8 +7232,11 @@
       <c r="M126" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="12.75">
+      <c r="N126" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="12.75">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6883,8 +7276,11 @@
       <c r="M127" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="12.75">
+      <c r="N127" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="12.75">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6924,8 +7320,11 @@
       <c r="M128" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="12.75">
+      <c r="N128" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="12.75">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6965,8 +7364,11 @@
       <c r="M129" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="12.75">
+      <c r="N129" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="12.75">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7006,8 +7408,11 @@
       <c r="M130" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="12.75">
+      <c r="N130" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="12.75">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7047,8 +7452,11 @@
       <c r="M131" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="12.75">
+      <c r="N131" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="12.75">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7088,8 +7496,11 @@
       <c r="M132" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="12.75">
+      <c r="N132" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="12.75">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7129,8 +7540,11 @@
       <c r="M133" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="12.75">
+      <c r="N133" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="12.75">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7170,8 +7584,11 @@
       <c r="M134" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="12.75">
+      <c r="N134" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="12.75">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7211,8 +7628,11 @@
       <c r="M135" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="12.75">
+      <c r="N135" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="12.75">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7252,8 +7672,11 @@
       <c r="M136" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="12.75">
+      <c r="N136" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="12.75">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7293,8 +7716,11 @@
       <c r="M137" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="12.75">
+      <c r="N137" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="12.75">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7334,8 +7760,11 @@
       <c r="M138" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="12.75">
+      <c r="N138" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="12.75">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7375,8 +7804,11 @@
       <c r="M139" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="12.75">
+      <c r="N139" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="12.75">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7416,8 +7848,11 @@
       <c r="M140" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="12.75">
+      <c r="N140" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="12.75">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7457,8 +7892,11 @@
       <c r="M141" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="12.75">
+      <c r="N141" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="12.75">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7498,8 +7936,11 @@
       <c r="M142" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="12.75">
+      <c r="N142" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="12.75">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7539,8 +7980,11 @@
       <c r="M143" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="12.75">
+      <c r="N143" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="12.75">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7580,8 +8024,11 @@
       <c r="M144" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="12.75">
+      <c r="N144" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="12.75">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7621,8 +8068,11 @@
       <c r="M145" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="12.75">
+      <c r="N145" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="12.75">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7662,8 +8112,11 @@
       <c r="M146" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="12.75">
+      <c r="N146" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="12.75">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7703,8 +8156,11 @@
       <c r="M147" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="12.75">
+      <c r="N147" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="12.75">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7744,8 +8200,11 @@
       <c r="M148" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="12.75">
+      <c r="N148" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="12.75">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7785,8 +8244,11 @@
       <c r="M149" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="12.75">
+      <c r="N149" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="12.75">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7826,8 +8288,11 @@
       <c r="M150" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="12.75">
+      <c r="N150" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="12.75">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7867,8 +8332,11 @@
       <c r="M151" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="12.75">
+      <c r="N151" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="12.75">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7908,8 +8376,11 @@
       <c r="M152" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="12.75">
+      <c r="N152" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="12.75">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7949,8 +8420,11 @@
       <c r="M153" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="12.75">
+      <c r="N153" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="12.75">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7990,8 +8464,11 @@
       <c r="M154" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="12.75">
+      <c r="N154" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="12.75">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8031,8 +8508,11 @@
       <c r="M155" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="12.75">
+      <c r="N155" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="12.75">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8072,8 +8552,11 @@
       <c r="M156" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="12.75">
+      <c r="N156" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="12.75">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8113,8 +8596,11 @@
       <c r="M157" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="12.75">
+      <c r="N157" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="12.75">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8154,8 +8640,11 @@
       <c r="M158" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="12.75">
+      <c r="N158" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="12.75">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8195,8 +8684,11 @@
       <c r="M159" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="12.75">
+      <c r="N159" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="12.75">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8236,8 +8728,11 @@
       <c r="M160" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="12.75">
+      <c r="N160" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="12.75">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8277,8 +8772,11 @@
       <c r="M161" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="12.75">
+      <c r="N161" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="12.75">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8318,8 +8816,11 @@
       <c r="M162" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="12.75">
+      <c r="N162" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="12.75">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8359,8 +8860,11 @@
       <c r="M163" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="12.75">
+      <c r="N163" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="12.75">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8400,8 +8904,11 @@
       <c r="M164" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="12.75">
+      <c r="N164" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="12.75">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8441,8 +8948,11 @@
       <c r="M165" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="12.75">
+      <c r="N165" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="12.75">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8482,8 +8992,11 @@
       <c r="M166" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="12.75">
+      <c r="N166" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="12.75">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8523,8 +9036,11 @@
       <c r="M167" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="12.75">
+      <c r="N167" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="12.75">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8564,8 +9080,11 @@
       <c r="M168" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="12.75">
+      <c r="N168" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="12.75">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8605,8 +9124,11 @@
       <c r="M169" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="12.75">
+      <c r="N169" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="12.75">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8646,8 +9168,11 @@
       <c r="M170" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="12.75">
+      <c r="N170" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="12.75">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8687,8 +9212,11 @@
       <c r="M171" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="12.75">
+      <c r="N171" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="12.75">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8728,8 +9256,11 @@
       <c r="M172" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="12.75">
+      <c r="N172" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="12.75">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8769,8 +9300,11 @@
       <c r="M173" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="12.75">
+      <c r="N173" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="12.75">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8810,8 +9344,11 @@
       <c r="M174" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="12.75">
+      <c r="N174" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="12.75">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8851,8 +9388,11 @@
       <c r="M175" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="12.75">
+      <c r="N175" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="12.75">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8892,8 +9432,11 @@
       <c r="M176" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="12.75">
+      <c r="N176" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="12.75">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8933,8 +9476,11 @@
       <c r="M177" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="12.75">
+      <c r="N177" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="12.75">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8974,8 +9520,11 @@
       <c r="M178" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="12.75">
+      <c r="N178" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="12.75">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9015,8 +9564,11 @@
       <c r="M179" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="12.75">
+      <c r="N179" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="12.75">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9056,8 +9608,11 @@
       <c r="M180" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="12.75">
+      <c r="N180" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="12.75">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9097,8 +9652,11 @@
       <c r="M181" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="12.75">
+      <c r="N181" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="12.75">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9138,8 +9696,11 @@
       <c r="M182" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="12.75">
+      <c r="N182" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="12.75">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9179,8 +9740,11 @@
       <c r="M183" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="12.75">
+      <c r="N183" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="12.75">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9220,8 +9784,11 @@
       <c r="M184" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="12.75">
+      <c r="N184" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="12.75">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9261,8 +9828,11 @@
       <c r="M185" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="12.75">
+      <c r="N185" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="12.75">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9302,8 +9872,11 @@
       <c r="M186" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="12.75">
+      <c r="N186" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="12.75">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9343,8 +9916,11 @@
       <c r="M187" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="12.75">
+      <c r="N187" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="12.75">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9384,8 +9960,11 @@
       <c r="M188" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="12.75">
+      <c r="N188" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="12.75">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9425,8 +10004,11 @@
       <c r="M189" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="12.75">
+      <c r="N189" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="12.75">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9466,8 +10048,11 @@
       <c r="M190" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="12.75">
+      <c r="N190" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="12.75">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9507,8 +10092,11 @@
       <c r="M191" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="12.75">
+      <c r="N191" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="12.75">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9548,8 +10136,11 @@
       <c r="M192" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="12.75">
+      <c r="N192" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="12.75">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9589,8 +10180,11 @@
       <c r="M193" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="12.75">
+      <c r="N193" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="12.75">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9630,8 +10224,11 @@
       <c r="M194" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="12.75">
+      <c r="N194" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="12.75">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9671,8 +10268,11 @@
       <c r="M195" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="12.75">
+      <c r="N195" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="12.75">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9712,8 +10312,11 @@
       <c r="M196" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="12.75">
+      <c r="N196" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="12.75">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9753,8 +10356,11 @@
       <c r="M197" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="12.75">
+      <c r="N197" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="12.75">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9794,8 +10400,11 @@
       <c r="M198" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="12.75">
+      <c r="N198" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="12.75">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9835,8 +10444,11 @@
       <c r="M199" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="12.75">
+      <c r="N199" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="12.75">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9876,8 +10488,11 @@
       <c r="M200" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="12.75">
+      <c r="N200" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="12.75">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9917,8 +10532,11 @@
       <c r="M201" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="12.75">
+      <c r="N201" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="12.75">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9958,8 +10576,11 @@
       <c r="M202" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="12.75">
+      <c r="N202" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="12.75">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9999,8 +10620,11 @@
       <c r="M203" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="12.75">
+      <c r="N203" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="12.75">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10040,8 +10664,11 @@
       <c r="M204" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="12.75">
+      <c r="N204" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="12.75">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10081,8 +10708,11 @@
       <c r="M205" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="12.75">
+      <c r="N205" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="12.75">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10122,8 +10752,11 @@
       <c r="M206" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="12.75">
+      <c r="N206" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="12.75">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10163,8 +10796,11 @@
       <c r="M207" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="12.75">
+      <c r="N207" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="12.75">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10204,8 +10840,11 @@
       <c r="M208" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="12.75">
+      <c r="N208" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="12.75">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10245,8 +10884,11 @@
       <c r="M209" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="12.75">
+      <c r="N209" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="12.75">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10286,8 +10928,11 @@
       <c r="M210" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="12.75">
+      <c r="N210" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="12.75">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10327,8 +10972,11 @@
       <c r="M211" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="12.75">
+      <c r="N211" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="12.75">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10368,8 +11016,11 @@
       <c r="M212" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="12.75">
+      <c r="N212" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="12.75">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10409,8 +11060,11 @@
       <c r="M213" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="12.75">
+      <c r="N213" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="12.75">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10450,8 +11104,11 @@
       <c r="M214" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="12.75">
+      <c r="N214" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="12.75">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10491,40 +11148,43 @@
       <c r="M215" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="12.75">
+      <c r="N215" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="12.75">
       <c r="G216" s="2"/>
       <c r="K216" s="7"/>
     </row>
-    <row r="217" spans="1:13" ht="12.75">
+    <row r="217" spans="1:14" ht="12.75">
       <c r="G217" s="2"/>
       <c r="K217" s="7"/>
     </row>
-    <row r="218" spans="1:13" ht="12.75">
+    <row r="218" spans="1:14" ht="12.75">
       <c r="G218" s="2"/>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:13" ht="12.75">
+    <row r="219" spans="1:14" ht="12.75">
       <c r="G219" s="2"/>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:13" ht="12.75">
+    <row r="220" spans="1:14" ht="12.75">
       <c r="G220" s="2"/>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:13" ht="12.75">
+    <row r="221" spans="1:14" ht="12.75">
       <c r="G221" s="2"/>
       <c r="K221" s="7"/>
     </row>
-    <row r="222" spans="1:13" ht="12.75">
+    <row r="222" spans="1:14" ht="12.75">
       <c r="G222" s="2"/>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:13" ht="12.75">
+    <row r="223" spans="1:14" ht="12.75">
       <c r="G223" s="2"/>
       <c r="K223" s="7"/>
     </row>
-    <row r="224" spans="1:13" ht="12.75">
+    <row r="224" spans="1:14" ht="12.75">
       <c r="G224" s="2"/>
       <c r="K224" s="7"/>
     </row>
@@ -14159,7 +14819,11 @@
       <formula1>"Дополнительный офис 1,Дополнительный офис 2,Дополнительный офис 3,Дополнительный офис 4"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{872E1F61-6781-4A5E-B364-E5BB7FED7C3C}"/>
+    <hyperlink ref="N3:N215" r:id="rId2" display="example@example.com" xr:uid="{4926E3AD-CDDB-4023-ACE2-62F25BBC077F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/backend/data/employees.xlsx
+++ b/backend/data/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MTC-hack\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2722B13-51C0-43A1-8B45-3A96275B89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F388FF-C48C-4432-B1D7-9775BDB5CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="2655" windowWidth="20310" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="446">
   <si>
     <t>Подразделение 2</t>
   </si>
@@ -1340,6 +1340,24 @@
   </si>
   <si>
     <t>example@example.com</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>АО "Межрегиональный ТранзитТелеком"</t>
+  </si>
+  <si>
+    <t>help@exolve.ru</t>
+  </si>
+  <si>
+    <t>МТС Exolve — конструктор омниканальных диалогов для бизнеса</t>
+  </si>
+  <si>
+    <t>Бизнес-процессы</t>
+  </si>
+  <si>
+    <t>109147, г.Москва, ул.Марксистская, д.22, стр.1</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A1:N1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N215"/>
+    <sheetView tabSelected="1" topLeftCell="H198" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K218" sqref="K218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1689,7 +1707,7 @@
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75">
@@ -11153,11 +11171,52 @@
       </c>
     </row>
     <row r="216" spans="1:14" ht="12.75">
-      <c r="G216" s="2"/>
-      <c r="K216" s="7"/>
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>7705017253</v>
+      </c>
+      <c r="L216" s="7">
+        <v>770901001</v>
+      </c>
+      <c r="M216" s="7">
+        <v>1027739006261</v>
+      </c>
+      <c r="N216" s="10" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="217" spans="1:14" ht="12.75">
       <c r="G217" s="2"/>
+      <c r="H217" s="1"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218" spans="1:14" ht="12.75">

--- a/backend/data/employees.xlsx
+++ b/backend/data/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MTC-hack\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F388FF-C48C-4432-B1D7-9775BDB5CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A111B-078F-48F9-9874-8B2DEFF39ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8070" yWindow="2655" windowWidth="20310" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="446">
   <si>
     <t>Подразделение 2</t>
   </si>
@@ -1694,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A1:N1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H198" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K218" sqref="K218"/>
+    <sheetView tabSelected="1" topLeftCell="C171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1764,8 +1764,8 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1808,8 +1808,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -3128,8 +3128,8 @@
       <c r="C33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
+      <c r="D33" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>42</v>
@@ -4668,8 +4668,8 @@
       <c r="C68" s="1">
         <v>0</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
+      <c r="D68" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>166</v>
@@ -4712,8 +4712,8 @@
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="1">
-        <v>0</v>
+      <c r="D69" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>166</v>
@@ -6296,8 +6296,8 @@
       <c r="C105" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="1">
-        <v>0</v>
+      <c r="D105" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>280</v>
@@ -6912,8 +6912,8 @@
       <c r="C119" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D119">
-        <v>0</v>
+      <c r="D119" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>280</v>
@@ -6956,8 +6956,8 @@
       <c r="C120" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D120">
-        <v>0</v>
+      <c r="D120" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>280</v>
@@ -7000,8 +7000,8 @@
       <c r="C121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D121">
-        <v>0</v>
+      <c r="D121" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>280</v>
@@ -7044,8 +7044,8 @@
       <c r="C122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D122">
-        <v>0</v>
+      <c r="D122" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>280</v>
@@ -7088,8 +7088,8 @@
       <c r="C123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D123">
-        <v>0</v>
+      <c r="D123" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>280</v>
@@ -7132,8 +7132,8 @@
       <c r="C124" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D124">
-        <v>0</v>
+      <c r="D124" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>280</v>
@@ -7176,8 +7176,8 @@
       <c r="C125" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D125">
-        <v>0</v>
+      <c r="D125" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>280</v>
@@ -7220,8 +7220,8 @@
       <c r="C126" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D126">
-        <v>0</v>
+      <c r="D126" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>280</v>
@@ -7264,8 +7264,8 @@
       <c r="C127" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D127">
-        <v>0</v>
+      <c r="D127" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>280</v>
@@ -7308,8 +7308,8 @@
       <c r="C128" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D128">
-        <v>0</v>
+      <c r="D128" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>280</v>
@@ -7352,8 +7352,8 @@
       <c r="C129" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D129">
-        <v>0</v>
+      <c r="D129" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>280</v>
@@ -7396,8 +7396,8 @@
       <c r="C130" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D130">
-        <v>0</v>
+      <c r="D130" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>280</v>
@@ -7440,8 +7440,8 @@
       <c r="C131" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D131">
-        <v>0</v>
+      <c r="D131" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>280</v>
@@ -7484,8 +7484,8 @@
       <c r="C132" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D132">
-        <v>0</v>
+      <c r="D132" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>280</v>
@@ -7528,8 +7528,8 @@
       <c r="C133" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D133">
-        <v>0</v>
+      <c r="D133" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>280</v>
@@ -7572,8 +7572,8 @@
       <c r="C134" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D134">
-        <v>0</v>
+      <c r="D134" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>280</v>
@@ -7616,8 +7616,8 @@
       <c r="C135" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D135">
-        <v>0</v>
+      <c r="D135" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>280</v>
@@ -7660,8 +7660,8 @@
       <c r="C136" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D136">
-        <v>0</v>
+      <c r="D136" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>280</v>
@@ -7704,8 +7704,8 @@
       <c r="C137" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D137">
-        <v>0</v>
+      <c r="D137" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>280</v>
@@ -7748,8 +7748,8 @@
       <c r="C138" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D138">
-        <v>0</v>
+      <c r="D138" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>280</v>
@@ -7792,8 +7792,8 @@
       <c r="C139" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D139">
-        <v>0</v>
+      <c r="D139" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>280</v>
@@ -7836,8 +7836,8 @@
       <c r="C140" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D140">
-        <v>0</v>
+      <c r="D140" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>280</v>
@@ -7880,8 +7880,8 @@
       <c r="C141" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D141">
-        <v>0</v>
+      <c r="D141" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>280</v>
@@ -7924,8 +7924,8 @@
       <c r="C142" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D142">
-        <v>0</v>
+      <c r="D142" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>280</v>
@@ -7968,8 +7968,8 @@
       <c r="C143" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D143">
-        <v>0</v>
+      <c r="D143" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>280</v>
@@ -8012,8 +8012,8 @@
       <c r="C144" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D144">
-        <v>0</v>
+      <c r="D144" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>280</v>
@@ -8056,8 +8056,8 @@
       <c r="C145" s="1">
         <v>0</v>
       </c>
-      <c r="D145" s="1">
-        <v>0</v>
+      <c r="D145" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>280</v>
@@ -8100,8 +8100,8 @@
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D146" s="1">
-        <v>0</v>
+      <c r="D146" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>280</v>
@@ -9552,8 +9552,8 @@
       <c r="C179" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D179" s="1">
-        <v>0</v>
+      <c r="D179" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>280</v>
@@ -10124,8 +10124,8 @@
       <c r="C192" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D192">
-        <v>0</v>
+      <c r="D192" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>265</v>
@@ -10168,8 +10168,8 @@
       <c r="C193" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D193">
-        <v>0</v>
+      <c r="D193" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>265</v>
@@ -10212,8 +10212,8 @@
       <c r="C194" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D194">
-        <v>0</v>
+      <c r="D194" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>265</v>
@@ -10256,8 +10256,8 @@
       <c r="C195" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D195">
-        <v>0</v>
+      <c r="D195" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>265</v>
@@ -10300,8 +10300,8 @@
       <c r="C196" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D196">
-        <v>0</v>
+      <c r="D196" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>265</v>
@@ -10344,8 +10344,8 @@
       <c r="C197" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D197">
-        <v>0</v>
+      <c r="D197" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>265</v>
@@ -10388,8 +10388,8 @@
       <c r="C198" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D198">
-        <v>0</v>
+      <c r="D198" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>265</v>
@@ -10432,8 +10432,8 @@
       <c r="C199" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D199">
-        <v>0</v>
+      <c r="D199" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>280</v>
@@ -10476,8 +10476,8 @@
       <c r="C200" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D200">
-        <v>0</v>
+      <c r="D200" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>280</v>
@@ -10520,8 +10520,8 @@
       <c r="C201" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D201">
-        <v>0</v>
+      <c r="D201" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>280</v>
@@ -10564,8 +10564,8 @@
       <c r="C202" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D202">
-        <v>0</v>
+      <c r="D202" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>280</v>
@@ -10608,8 +10608,8 @@
       <c r="C203" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D203">
-        <v>0</v>
+      <c r="D203" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>280</v>
@@ -10652,8 +10652,8 @@
       <c r="C204" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D204">
-        <v>0</v>
+      <c r="D204" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>280</v>
@@ -10696,8 +10696,8 @@
       <c r="C205" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D205">
-        <v>0</v>
+      <c r="D205" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>42</v>
@@ -10740,8 +10740,8 @@
       <c r="C206" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D206">
-        <v>0</v>
+      <c r="D206" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>42</v>
@@ -10784,8 +10784,8 @@
       <c r="C207" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D207">
-        <v>0</v>
+      <c r="D207" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>42</v>
@@ -10828,8 +10828,8 @@
       <c r="C208" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D208">
-        <v>0</v>
+      <c r="D208" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>42</v>
@@ -10872,8 +10872,8 @@
       <c r="C209" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D209">
-        <v>0</v>
+      <c r="D209" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>42</v>
@@ -10916,8 +10916,8 @@
       <c r="C210" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D210">
-        <v>0</v>
+      <c r="D210" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>42</v>
@@ -10960,8 +10960,8 @@
       <c r="C211" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D211">
-        <v>0</v>
+      <c r="D211" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>42</v>
@@ -11004,8 +11004,8 @@
       <c r="C212" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D212">
-        <v>0</v>
+      <c r="D212" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>42</v>
@@ -11048,8 +11048,8 @@
       <c r="C213" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D213">
-        <v>0</v>
+      <c r="D213" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>42</v>
@@ -11092,8 +11092,8 @@
       <c r="C214" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D214">
-        <v>0</v>
+      <c r="D214" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>42</v>
@@ -11136,8 +11136,8 @@
       <c r="C215" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D215">
-        <v>0</v>
+      <c r="D215" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>42</v>
@@ -11180,7 +11180,7 @@
       <c r="C216">
         <v>0</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
